--- a/Documents/BOM/LCSC/BOM_Slave.xlsx
+++ b/Documents/BOM/LCSC/BOM_Slave.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.ulmanis\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karlis.ulmanis\Desktop\Workfiles\Documents\BOM\LCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="BOM_Parking_lot_slave_device_20" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -273,12 +273,6 @@
     <t>Terminal-5.08 8P(3P)</t>
   </si>
   <si>
-    <t>C1594</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_150pF-151-10-50V_C1594.html</t>
-  </si>
-  <si>
     <t>C59943</t>
   </si>
   <si>
@@ -354,12 +348,6 @@
     <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_SAMSUNG_CL10A475MQ8NNNC_4-7uF-475-20-6-3V_C154959.html</t>
   </si>
   <si>
-    <t>C107451</t>
-  </si>
-  <si>
-    <t>https://lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_Walsin-Tech-Corp-0603N220J500_C107451.html</t>
-  </si>
-  <si>
     <t>https://lcsc.com/product-detail/DC-DC-Converters_ON-Semicon-MC34063ADR2G_C32078.html</t>
   </si>
   <si>
@@ -397,6 +385,24 @@
   </si>
   <si>
     <t>68uH</t>
+  </si>
+  <si>
+    <t>C286567</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/Others_Guangdong-Fenghua-Advanced-Tech-RS-03K121JT_C286567.html</t>
+  </si>
+  <si>
+    <t>C376775</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_CCTC-TCC0603COG220J500CT_C376775.html</t>
+  </si>
+  <si>
+    <t>C376812</t>
+  </si>
+  <si>
+    <t>https://lcsc.com/product-detail/New-Arrivals_CCTC-TCC0603X7R151M500CT_C376812.html</t>
   </si>
 </sst>
 </file>
@@ -1004,12 +1010,6 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1025,6 +1025,12 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1039,17 +1045,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:H28"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" name="Name" dataDxfId="8"/>
-    <tableColumn id="3" name="Designator" dataDxfId="7"/>
-    <tableColumn id="4" name="Footprint" dataDxfId="6"/>
-    <tableColumn id="5" name="Quantity" dataDxfId="5"/>
-    <tableColumn id="6" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="7" name="Supplier Part" dataDxfId="3"/>
-    <tableColumn id="8" name="Link" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Designator" dataDxfId="5"/>
+    <tableColumn id="4" name="Footprint" dataDxfId="4"/>
+    <tableColumn id="5" name="Quantity" dataDxfId="3"/>
+    <tableColumn id="6" name="Supplier" dataDxfId="2"/>
+    <tableColumn id="7" name="Supplier Part" dataDxfId="1"/>
+    <tableColumn id="8" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1321,7 +1327,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,7 +1449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>16</v>
@@ -1473,7 +1479,7 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1512,10 +1518,10 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1527,7 +1533,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>70</v>
@@ -1539,10 +1545,10 @@
         <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1551,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>46</v>
@@ -1566,10 +1572,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,10 +1599,10 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1620,10 +1626,10 @@
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,10 +1653,10 @@
         <v>15</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,10 +1680,10 @@
         <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1701,10 +1707,10 @@
         <v>15</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1728,10 +1734,10 @@
         <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1755,10 +1761,10 @@
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1781,7 +1787,12 @@
       <c r="F17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1804,10 +1815,10 @@
         <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,7 +1827,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>37</v>
@@ -1831,10 +1842,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1858,10 +1869,10 @@
         <v>15</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1888,7 +1899,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1897,10 +1908,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>44</v>
@@ -1912,10 +1923,10 @@
         <v>15</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1924,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>45</v>
@@ -1939,10 +1950,10 @@
         <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1966,10 +1977,10 @@
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2011,7 +2022,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -2090,27 +2101,29 @@
     <hyperlink ref="H5" r:id="rId6"/>
     <hyperlink ref="H4" r:id="rId7"/>
     <hyperlink ref="H6" r:id="rId8"/>
-    <hyperlink ref="H7" r:id="rId9"/>
-    <hyperlink ref="H10" r:id="rId10"/>
-    <hyperlink ref="H11" r:id="rId11"/>
-    <hyperlink ref="H12" r:id="rId12"/>
-    <hyperlink ref="H9" r:id="rId13"/>
-    <hyperlink ref="H8" r:id="rId14"/>
-    <hyperlink ref="H13" r:id="rId15"/>
-    <hyperlink ref="H14" r:id="rId16"/>
-    <hyperlink ref="H15" r:id="rId17"/>
-    <hyperlink ref="H16" r:id="rId18"/>
-    <hyperlink ref="H18" r:id="rId19"/>
-    <hyperlink ref="H19" r:id="rId20"/>
-    <hyperlink ref="H20" r:id="rId21"/>
-    <hyperlink ref="H21" r:id="rId22"/>
-    <hyperlink ref="H22" r:id="rId23"/>
-    <hyperlink ref="H23" r:id="rId24"/>
-    <hyperlink ref="H24" r:id="rId25"/>
+    <hyperlink ref="H10" r:id="rId9"/>
+    <hyperlink ref="H11" r:id="rId10"/>
+    <hyperlink ref="H12" r:id="rId11"/>
+    <hyperlink ref="H9" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="H13" r:id="rId14"/>
+    <hyperlink ref="H14" r:id="rId15"/>
+    <hyperlink ref="H15" r:id="rId16"/>
+    <hyperlink ref="H16" r:id="rId17"/>
+    <hyperlink ref="H18" r:id="rId18"/>
+    <hyperlink ref="H19" r:id="rId19"/>
+    <hyperlink ref="H21" r:id="rId20"/>
+    <hyperlink ref="H22" r:id="rId21"/>
+    <hyperlink ref="H23" r:id="rId22"/>
+    <hyperlink ref="H24" r:id="rId23"/>
+    <hyperlink ref="H17" r:id="rId24"/>
+    <hyperlink ref="H20" r:id="rId25"/>
+    <hyperlink ref="H7" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId27"/>
   <tableParts count="1">
-    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Documents/BOM/LCSC/BOM_Slave.xlsx
+++ b/Documents/BOM/LCSC/BOM_Slave.xlsx
@@ -1327,7 +1327,7 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
